--- a/biology/Médecine/Association_professionnelle_mondiale_pour_la_santé_des_personnes_transgenres/Association_professionnelle_mondiale_pour_la_santé_des_personnes_transgenres.xlsx
+++ b/biology/Médecine/Association_professionnelle_mondiale_pour_la_santé_des_personnes_transgenres/Association_professionnelle_mondiale_pour_la_santé_des_personnes_transgenres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_professionnelle_mondiale_pour_la_sant%C3%A9_des_personnes_transgenres</t>
+          <t>Association_professionnelle_mondiale_pour_la_santé_des_personnes_transgenres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Association professionnelle mondiale pour la santé des personnes transgenres (en anglais : « World Professional Association for Transgender Health, Inc. », ou « WPATH »), qui s'appelait anciennement l'« association internationale Henry Benjamin de dysphorie de genre » (en anglais : « Harry Benjamin International Gender Dysphoria Association, Inc. »), est une association professionnelle consacrée à la compréhension et au traitement de la dysphorie de genre. L'organisation a été initialement nommée d'après Harry Benjamin, l'un des premiers médecins à travailler avec des personnes trans[1]. L'association est plus connue pour la publication des Standards de soin pour la santé des personnes transsexuelles, transgenres, et de genre non-conforme, mais fournit également des informations pour les professionnels, les personnes concernées, et les sponsors de conférences scientifiques, et offre des directives éthiques pour les professionnels[2].
-La première version des Standards de soin a été publiée en 1979[3]. La version 7 a été publiée en 2011[4], et la version 8 en 2022[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Association professionnelle mondiale pour la santé des personnes transgenres (en anglais : « World Professional Association for Transgender Health, Inc. », ou « WPATH »), qui s'appelait anciennement l'« association internationale Henry Benjamin de dysphorie de genre » (en anglais : « Harry Benjamin International Gender Dysphoria Association, Inc. »), est une association professionnelle consacrée à la compréhension et au traitement de la dysphorie de genre. L'organisation a été initialement nommée d'après Harry Benjamin, l'un des premiers médecins à travailler avec des personnes trans. L'association est plus connue pour la publication des Standards de soin pour la santé des personnes transsexuelles, transgenres, et de genre non-conforme, mais fournit également des informations pour les professionnels, les personnes concernées, et les sponsors de conférences scientifiques, et offre des directives éthiques pour les professionnels.
+La première version des Standards de soin a été publiée en 1979. La version 7 a été publiée en 2011, et la version 8 en 2022.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_professionnelle_mondiale_pour_la_sant%C3%A9_des_personnes_transgenres</t>
+          <t>Association_professionnelle_mondiale_pour_la_santé_des_personnes_transgenres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs présidents se sont succédé à la tête de l'association ; dans l'ordre : Paul Walker de 1979 à 1981, Donald Laub de 1981 à 1983, Milton T. Edgerton de 1983 à 1985, Ira Pauly de 1985 à 1987, Aaron T. Bilowitz de 1987 à 1989, Jan Walinder de 1989 à 1991, Leah Schaefer de 1991 à 1995, Friedmann Pfaefflin de 1995 à 1997, Richard Green de 1997 à 1999, Alice Webb en 1999, Eli Coleman de 1999 à 2003, Walter Meyer III de 2003 à 2005, Stan Monstrey de 2005 à 2007, Stephen Whittle de 2007 à 2009, Walter O.Bockting de 2009 à 2011, Lin Fraser de 2011 à 2013, Jamison Green de 2013 à 2015, et Gail Knudson de 2016 à 2018.
 </t>
